--- a/econometrics/SEM2/balli/data/VRP.xlsx
+++ b/econometrics/SEM2/balli/data/VRP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\мои документы\ВРП\САЙТ ВРП\сайт ВРП за 2022 год (от марта 2024 года)\Произведенный ВРП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsedoff\Documents\VSCODE\ITiABD-PM22-7-Nikolay-Sedov\econometrics\SEM2\balli\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBEC602-5B39-44B9-9997-218ACB3F142E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073BC196-6CF3-4D8E-B751-D8CD810B2E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Содержание" sheetId="10" r:id="rId1"/>
@@ -538,7 +538,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,9 +1030,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1060,6 +1059,9 @@
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1075,7 +1077,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1103,18 +1105,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,14 +1138,14 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,10 +1167,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,15 +1213,12 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1285,32 +1284,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="m49048872" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Обычный 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Обычный 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Обычный 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Обычный 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Обычный 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Обычный 3 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Обычный 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Обычный 5" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Обычный 6" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Обычный_МОБ 97-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Процентный 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Процентный 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+  <cellStyles count="18">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="m49048872" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Гиперссылка 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Обычный 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Обычный 3 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Обычный 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Обычный 5" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Обычный 6" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Обычный_МОБ 97-1" xfId="1" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Процентный 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Процентный 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1621,9 +1619,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1661,9 +1659,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1696,26 +1694,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1748,26 +1729,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1944,61 +1908,61 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B3" sqref="B3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="15.5">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.5">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="58" t="s">
@@ -2014,14 +1978,14 @@
       <c r="J3" s="58"/>
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.5">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="58" t="s">
@@ -2037,228 +2001,228 @@
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.5">
+      <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.5">
+      <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="41" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2288,394 +2252,394 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="22.7109375" style="9" customWidth="1"/>
-    <col min="3" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" style="9" customWidth="1"/>
-    <col min="10" max="20" width="11.42578125" style="9" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="2" width="22.7265625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="10.7265625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="11.26953125" style="10" customWidth="1"/>
+    <col min="10" max="20" width="11.453125" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="35.25" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="60"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" ht="54.75" customHeight="1">
       <c r="A2" s="65" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="64" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="64"/>
-      <c r="C3" s="42">
+      <c r="C3" s="43">
         <v>1998</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="43">
         <v>1999</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <v>2000</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="43">
         <v>2001</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="43">
         <v>2002</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="43">
         <v>2003</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="43">
         <v>2004</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="43">
         <v>2005</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="43">
         <v>2006</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="43">
         <v>2007</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="43">
         <v>2008</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="43">
         <v>2009</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="43">
         <v>2010</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="43">
         <v>2011</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="43">
         <v>2012</v>
       </c>
-      <c r="R3" s="42">
+      <c r="R3" s="43">
         <v>2013</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="43">
         <v>2014</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="43">
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A4" s="61" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="61"/>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
         <v>31373</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="44">
         <v>53242</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="44">
         <v>62089</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="44">
         <v>72826</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="44">
         <v>96832</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="44">
         <v>119334</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="44">
         <v>152301</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="44">
         <v>186623</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="44">
         <v>215934</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="44">
         <v>259041</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="44">
         <v>316582</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="44">
         <v>368997</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="44">
         <v>470679</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="44">
         <v>549723</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="44">
         <v>557489</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="44">
         <v>577474</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="44">
         <v>642423</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="44">
         <v>717610</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="53.25" customHeight="1">
       <c r="A5" s="61" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="61"/>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>93.9</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="44">
         <v>106.5</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="44">
         <v>98.3</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="46">
         <v>100</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="44">
         <v>104.6</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="44">
         <v>105.8</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="46">
         <v>108</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="44">
         <v>105.5</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="44">
         <v>104.1</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="44">
         <v>106.6</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="44">
         <v>107.2</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="44">
         <v>102.4</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="44">
         <v>111.7</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="44">
         <v>107.3</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="44">
         <v>93.1</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="44">
         <v>97.4</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="44">
         <v>101.3</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="44">
         <v>99.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="12" customFormat="1" ht="33.75" customHeight="1">
       <c r="A6" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="61"/>
-      <c r="C6" s="43">
+      <c r="C6" s="44">
         <v>14394</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="44">
         <v>24717</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="44">
         <v>29140</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="44">
         <v>34628</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="44">
         <v>46633</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="44">
         <v>57986</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="44">
         <v>74713</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="44">
         <v>92504</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="44">
         <v>108099</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="44">
         <v>130632</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="44">
         <v>160417</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="44">
         <v>187556</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="44">
         <v>240221</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="44">
         <v>281771</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="44">
         <v>286503</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="44">
         <v>297982</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="44">
         <v>333072</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="44">
         <v>373413</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="69" customHeight="1">
       <c r="A7" s="62" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="63"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49">
         <v>106.6</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="49">
         <v>105.2</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="49">
         <v>107.4</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="49">
         <v>107.7</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="49">
         <v>102.7</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="49">
         <v>112.1</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="49">
         <v>107.7</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="49">
         <v>93.3</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="49">
         <v>97.8</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="49">
         <v>101.8</v>
       </c>
-      <c r="T7" s="48">
+      <c r="T7" s="49">
         <v>99.9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="12" customFormat="1" ht="69" customHeight="1">
       <c r="A8" s="62" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="63"/>
-      <c r="C8" s="43">
+      <c r="C8" s="44">
         <v>1.4</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="44">
         <v>1.4</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="44">
         <v>1.08</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="44">
         <v>1.02</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="44">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="44">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="44">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="44">
         <v>1.03</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="44">
         <v>0.96</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="44">
         <v>0.93</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="44">
         <v>0.93</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="44">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="44">
         <v>1.25</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="44">
         <v>1.21</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="44">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="44">
         <v>1.07</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="44">
         <v>1.08</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="44">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="59" t="s">
         <v>92</v>
       </c>
@@ -2690,114 +2654,114 @@
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="L9" s="59"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2827,211 +2791,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="22.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="2" width="22.7265625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="33" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="60"/>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="65" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="64" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="64"/>
-      <c r="C3" s="42">
+      <c r="C3" s="43">
         <v>2016</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="43">
         <v>2017</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <v>2018</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="43">
         <v>2019</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="43">
         <v>2020</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="43">
         <v>2021</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="43">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A4" s="61" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="61"/>
-      <c r="C4" s="44">
+      <c r="C4" s="45">
         <v>860804</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="45">
         <v>906265</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="45">
         <v>965485</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="45">
         <v>1069331</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="45">
         <v>1105673</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="45">
         <v>1354100</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="45">
         <v>1539350</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="48" customHeight="1">
       <c r="A5" s="61" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="61"/>
-      <c r="C5" s="44">
+      <c r="C5" s="45">
         <v>97.7</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="45">
         <v>101.9</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="45">
         <v>101.8</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="50">
         <v>105</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="45">
         <v>98.5</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="45">
         <v>107.2</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="45">
         <v>102.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A6" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="61"/>
-      <c r="C6" s="44">
+      <c r="C6" s="45">
         <v>449626</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="45">
         <v>475867</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="45">
         <v>510202</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="45">
         <v>568198</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="45">
         <v>591923</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="45">
         <v>731915</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="45">
         <v>840707</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="72" customHeight="1">
       <c r="A7" s="62" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="63"/>
-      <c r="C7" s="49">
+      <c r="C7" s="50">
         <v>98.1</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="45">
         <v>102.4</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="45">
         <v>102.5</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="45">
         <v>105.6</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="45">
         <v>99.2</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="45">
         <v>108.2</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="45">
         <v>103.7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="72" customHeight="1">
       <c r="A8" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="67"/>
-      <c r="C8" s="44">
+      <c r="C8" s="45">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="45">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="45">
         <v>1.07</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="45">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="45">
         <v>1.17</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="45">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="45">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="75" customHeight="1">
       <c r="A9" s="66" t="s">
         <v>97</v>
       </c>
@@ -3044,7 +3008,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="66" t="s">
         <v>96</v>
       </c>
@@ -3052,46 +3016,46 @@
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3126,27 +3090,27 @@
       <selection activeCell="C4" sqref="C4:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="9" customWidth="1"/>
-    <col min="3" max="14" width="9.7109375" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13.26953125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="56.7265625" style="10" customWidth="1"/>
+    <col min="3" max="14" width="9.7265625" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="33.75" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="60"/>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="49.5" customHeight="1">
       <c r="A2" s="76" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="76"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="77"/>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -3155,89 +3119,89 @@
       <c r="J2" s="77"/>
       <c r="K2" s="77"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="70"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="42">
+      <c r="C3" s="43">
         <v>2005</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="43">
         <v>2006</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <v>2007</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="43">
         <v>2008</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="43">
         <v>2009</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="43">
         <v>2010</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="43">
         <v>2011</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="43">
         <v>2012</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="43">
         <v>2013</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="43">
         <v>2014</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="43">
         <v>2015</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="43">
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="33" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="69"/>
-      <c r="C4" s="49">
+      <c r="C4" s="50">
         <v>105.5</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="50">
         <v>104.1</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="50">
         <v>106.6</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="50">
         <v>107.2</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="50">
         <v>102.4</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="50">
         <v>111.7</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="50">
         <v>107.3</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="50">
         <v>93.1</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="50">
         <v>97.4</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="50">
         <v>101.3</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="50">
         <v>99.5</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="50">
         <v>97.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17.25" customHeight="1">
       <c r="A5" s="72" t="s">
         <v>59</v>
       </c>
@@ -3255,712 +3219,712 @@
       <c r="M5" s="74"/>
       <c r="N5" s="75"/>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:14" ht="16.5">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="50">
         <v>114.6</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="50">
         <v>103.5</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="50">
         <v>96.1</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="50">
         <v>102.5</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="50">
         <v>106</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="50">
         <v>102.9</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="50">
         <v>109.2</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="50">
         <v>93.8</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="50">
         <v>99.7</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="50">
         <v>115.8</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="50">
         <v>82.3</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="50">
         <v>97.9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:14" ht="16.5">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="50">
         <v>111</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="50">
         <v>94.3</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="50">
         <v>101.9</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="50">
         <v>110.8</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="50">
         <v>92.2</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="50">
         <v>98.2</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="50">
         <v>102.3</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="50">
         <v>105.7</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="50">
         <v>102.8</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="50">
         <v>103.1</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="50">
         <v>96.3</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="50">
         <v>97.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:14" ht="16.5">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="50">
         <v>106.1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="50">
         <v>96.2</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="50">
         <v>100.5</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="50">
         <v>69.8</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="50">
         <v>134</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="50">
         <v>96.3</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="50">
         <v>104.6</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="50">
         <v>89.3</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="50">
         <v>84</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="50">
         <v>128.4</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="50">
         <v>85</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="50">
         <v>111.3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:14" ht="16.5">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="50">
         <v>103.6</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="50">
         <v>104.6</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="50">
         <v>102.5</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="50">
         <v>106.3</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="50">
         <v>94.5</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="50">
         <v>123</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="50">
         <v>109.5</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="50">
         <v>103.4</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="50">
         <v>101.3</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="50">
         <v>107.9</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="50">
         <v>86.2</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="50">
         <v>103.1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:14" ht="31">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="50">
         <v>93.4</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="50">
         <v>102.3</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="50">
         <v>82.9</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="50">
         <v>106.5</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="50">
         <v>108.3</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="50">
         <v>101.9</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="50">
         <v>97</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="50">
         <v>94.5</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="50">
         <v>99.4</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="50">
         <v>107.1</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="50">
         <v>65.599999999999994</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="50">
         <v>145.4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:14" ht="16.5">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="50">
         <v>99.4</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="50">
         <v>103.4</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="50">
         <v>123.3</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="50">
         <v>121.2</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="50">
         <v>179.5</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="50">
         <v>123</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="50">
         <v>117.5</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="50">
         <v>50.3</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="50">
         <v>58.3</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="50">
         <v>85</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="50">
         <v>106</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="50">
         <v>99.6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:14" ht="46.5">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="50">
         <v>112.7</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="50">
         <v>108.6</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="50">
         <v>113.5</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="50">
         <v>108.3</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="50">
         <v>93.8</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="50">
         <v>101.7</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="50">
         <v>107.7</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="50">
         <v>109.1</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="50">
         <v>103.3</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="50">
         <v>103.8</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="50">
         <v>99.5</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="50">
         <v>91.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:14" ht="16.5">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="50">
         <v>96.2</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="50">
         <v>96.2</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="50">
         <v>110.7</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="50">
         <v>96.9</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="50">
         <v>105.2</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="50">
         <v>97.9</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="50">
         <v>113</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="50">
         <v>125</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="50">
         <v>131.80000000000001</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="50">
         <v>109.9</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="50">
         <v>101</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="50">
         <v>95.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:14" ht="16.5">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="50">
         <v>100.8</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="50">
         <v>99.2</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="50">
         <v>107.6</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="50">
         <v>110.1</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="50">
         <v>99</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="50">
         <v>142.9</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="50">
         <v>102.2</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="50">
         <v>103.4</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="50">
         <v>96.7</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="50">
         <v>104.4</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="50">
         <v>113.7</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="50">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:14" ht="16.5">
+      <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="50">
         <v>67.5</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="50">
         <v>128.69999999999999</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="50">
         <v>82.7</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="50">
         <v>132.69999999999999</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="50">
         <v>66.599999999999994</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="50">
         <v>133.1</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="50">
         <v>37.9</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="50">
         <v>246.6</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="50">
         <v>83.6</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="50">
         <v>88.8</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="50">
         <v>99.1</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15" s="50">
         <v>81.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:14" ht="33" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="50">
         <v>113.3</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="50">
         <v>106.1</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="50">
         <v>114.6</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="50">
         <v>116.4</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="50">
         <v>109.6</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="50">
         <v>96.1</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="50">
         <v>116.5</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="50">
         <v>113.5</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="50">
         <v>111.6</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="50">
         <v>84.4</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="50">
         <v>117.3</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="50">
         <v>97.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:14" ht="33" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="50">
         <v>110.3</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="50">
         <v>115.8</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="50">
         <v>115.2</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="50">
         <v>101.2</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="50">
         <v>91.6</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="50">
         <v>98.4</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="50">
         <v>105.5</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="50">
         <v>95.3</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="50">
         <v>103.4</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="50">
         <v>102.6</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="50">
         <v>89</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17" s="50">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:14" ht="16.5">
+      <c r="A18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="50">
         <v>98.1</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="50">
         <v>98</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="50">
         <v>98.1</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="50">
         <v>98.2</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="50">
         <v>101.2</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="50">
         <v>93.6</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="50">
         <v>99.3</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="50">
         <v>97</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="50">
         <v>99.6</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="50">
         <v>99.9</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="50">
         <v>95.3</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="50">
         <v>93.4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:14" ht="16.5">
+      <c r="A19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="50">
         <v>103.5</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="50">
         <v>98.7</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="50">
         <v>101.4</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="50">
         <v>100.2</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="50">
         <v>92.8</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="50">
         <v>98.9</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="50">
         <v>99.9</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="50">
         <v>99.8</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="50">
         <v>101.5</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="50">
         <v>98.8</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="50">
         <v>101.8</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="50">
         <v>97.8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:14" ht="33" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="50">
         <v>88.6</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="50">
         <v>179.2</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="50">
         <v>74.599999999999994</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="50">
         <v>91.4</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="50">
         <v>96.1</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="50">
         <v>89.7</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="50">
         <v>106.1</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="50">
         <v>127.2</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="50">
         <v>106.8</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="50">
         <v>95.9</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="50">
         <v>101.8</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="50">
         <v>154.30000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:14" ht="16.5">
+      <c r="A21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="51">
         <v>100</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="50">
         <v>100.8</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="50">
         <v>104.3</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="50">
         <v>100.1</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="50">
         <v>100</v>
       </c>
-      <c r="N21" s="46" t="s">
+      <c r="N21" s="47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="15" customHeight="1"/>
+    <row r="23" spans="1:14" ht="39" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
@@ -3987,619 +3951,619 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="57" style="9" customWidth="1"/>
-    <col min="3" max="8" width="10.7109375" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13.26953125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57" style="10" customWidth="1"/>
+    <col min="3" max="8" width="10.7265625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="36" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="60"/>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="49.5" customHeight="1">
       <c r="A2" s="76" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="76"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="81"/>
       <c r="B3" s="81"/>
-      <c r="C3" s="42">
+      <c r="C3" s="43">
         <v>2017</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="43">
         <v>2018</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <v>2019</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="43">
         <v>2020</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="43">
         <v>2021</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="43">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5" customHeight="1">
       <c r="A4" s="79" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="80"/>
-      <c r="C4" s="51">
+      <c r="C4" s="52">
         <v>101.9</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="52">
         <v>101.8</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="52">
         <v>105</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="52">
         <v>98.5</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="53">
         <v>107.2</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="53">
         <v>102.61893685884831</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="72" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="73"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="53">
         <v>99</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="53">
         <v>104</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="53">
         <v>105.5</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="53">
         <v>121.9</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="53">
         <v>119.3</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="53">
         <v>87.587964989567595</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="53">
         <v>71.900000000000006</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="53">
         <v>113.7</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="53">
         <v>104.9</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="53">
         <v>98.9</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="53">
         <v>109.1</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="53">
         <v>92.272642838564238</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="53">
         <v>112.5</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="53">
         <v>94.6</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="53">
         <v>125.2</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="53">
         <v>76.599999999999994</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="53">
         <v>115.2</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="53">
         <v>84.02887412143734</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:12" ht="33" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="53">
         <v>86.6</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="53">
         <v>104.9</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="53">
         <v>100.5</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="53">
         <v>89.9</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="53">
         <v>101.5</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="53">
         <v>102.56725936700089</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:12" ht="48" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="53">
         <v>121.9</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="53">
         <v>96.4</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="53">
         <v>93.2</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="53">
         <v>66.7</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="53">
         <v>102.5</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="53">
         <v>90.245841238909364</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="53">
         <v>96.7</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="53">
         <v>94.4</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="53">
         <v>106.3</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="53">
         <v>93</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="53">
         <v>94.8</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="53">
         <v>126.16563589663939</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:12" ht="33" customHeight="1">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="53">
         <v>109.2</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="53">
         <v>105.1</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="53">
         <v>103.5</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="53">
         <v>102.6</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="53">
         <v>109.2</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="53">
         <v>103.04921409977213</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="53">
         <v>96.2</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="53">
         <v>104</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="53">
         <v>106.2</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="53">
         <v>103.4</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="53">
         <v>108.8</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="53">
         <v>114.97365891392097</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:12" ht="33" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="53">
         <v>99.1</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="53">
         <v>104.3</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="53">
         <v>104.4</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="53">
         <v>52.2</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="53">
         <v>171.1</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="53">
         <v>96.33840194412916</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="53">
         <v>105.3</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="53">
         <v>105.7</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="53">
         <v>103.6</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="53">
         <v>96.1</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="53">
         <v>100.4</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="53">
         <v>103.30806518259017</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="53">
         <v>105.9</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="53">
         <v>105.4</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="53">
         <v>58.9</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="53">
         <v>109.7</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="53">
         <v>111.5</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="53">
         <v>98.065399013627641</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="53">
         <v>101.9</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="53">
         <v>103.1</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="53">
         <v>104.9</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="53">
         <v>104.8</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="53">
         <v>104.8</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="53">
         <v>99.540701386737013</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="53">
         <v>101.2</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="53">
         <v>94.3</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="53">
         <v>119.9</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="53">
         <v>94.2</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="53">
         <v>110.6</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="53">
         <v>101.8277947200956</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:9" ht="33" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="53">
         <v>117.8</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="53">
         <v>104.1</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="53">
         <v>94.4</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="53">
         <v>98</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="53">
         <v>100</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="53">
         <v>118.96284157276482</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:9" ht="33" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="53">
         <v>99.9</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="53">
         <v>100.5</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="53">
         <v>99.1</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="53">
         <v>97.4</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="53">
         <v>100.2</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="53">
         <v>103.7566411743215</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="53">
         <v>109.9</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="53">
         <v>100.1</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="53">
         <v>99.7</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="53">
         <v>93.7</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="53">
         <v>103.1</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="53">
         <v>98.162405788981388</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:9" ht="33" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="53">
         <v>98.3</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="53">
         <v>101.9</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="53">
         <v>99</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="53">
         <v>102.8</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="53">
         <v>100.2</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="53">
         <v>100.21503814426292</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:9" ht="33" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="53">
         <v>100.4</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="53">
         <v>93.9</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="53">
         <v>89.7</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="53">
         <v>63.9</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="53">
         <v>86.1</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="53">
         <v>106.41907162343982</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="53">
         <v>103.7</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="53">
         <v>90.6</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="53">
         <v>97.9</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="53">
         <v>85.7</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="53">
         <v>107</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="53">
         <v>96.199799743485954</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="75" customHeight="1">
       <c r="A27" s="78" t="s">
         <v>98</v>
       </c>
@@ -4612,7 +4576,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
@@ -4650,52 +4614,52 @@
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" s="33" customFormat="1" ht="15.5">
       <c r="B1" s="82" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="83"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="2:5" ht="16" thickBot="1">
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" ht="52.5" thickBot="1">
+      <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:5" ht="100.5" thickBot="1">
+      <c r="B4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>75</v>
       </c>
     </row>
